--- a/insitu/30mv/insitu-30mv-Layer1-Test1.xlsx
+++ b/insitu/30mv/insitu-30mv-Layer1-Test1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tsubaki/Desktop/Github/zianlab/insitu/30mv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B73D8A-3789-E044-86FF-785D544D478B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF3F7C4-4926-4343-AF2D-2FD33006896B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1190,7 +1190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="96" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="96" workbookViewId="0">
       <selection activeCell="G6" sqref="G6:H94"/>
     </sheetView>
   </sheetViews>
